--- a/機能項目相互間の関係.xlsx
+++ b/機能項目相互間の関係.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suitc-my.sharepoint.com/personal/r_ono_773_ms_saitama-u_ac_jp/Documents/講義関係/ロボティクス特論/演習/第13回/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\TOYODENSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="11_AD4D066CA252ABDACC1048FC29D3DB6473EEDF49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16CB6ED5-566B-4447-A130-69237B06A8FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CC4A5E-B7F7-421C-A44B-0F7B36D98A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能項目相互間の関係" sheetId="1" r:id="rId1"/>
+    <sheet name="性能・性質" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="53">
   <si>
     <t>テーマ：</t>
     <phoneticPr fontId="1"/>
@@ -272,6 +273,113 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品質感</t>
+  </si>
+  <si>
+    <t>過ごしやすい</t>
+  </si>
+  <si>
+    <t>汚れにくい</t>
+  </si>
+  <si>
+    <t>かしこい</t>
+  </si>
+  <si>
+    <t>確実な</t>
+  </si>
+  <si>
+    <t>丈夫な</t>
+  </si>
+  <si>
+    <t>静けさ</t>
+  </si>
+  <si>
+    <t>静粛的な</t>
+  </si>
+  <si>
+    <t>滑りくそうな</t>
+  </si>
+  <si>
+    <t>スムーズな</t>
+  </si>
+  <si>
+    <t>座っていたくなる</t>
+  </si>
+  <si>
+    <t>包まれる</t>
+  </si>
+  <si>
+    <t>守られている</t>
+  </si>
+  <si>
+    <t>メリハリのある</t>
+  </si>
+  <si>
+    <t>目に優しい</t>
+  </si>
+  <si>
+    <t>クイックな</t>
+  </si>
+  <si>
+    <t>自由自在な</t>
+  </si>
+  <si>
+    <t>負担のない</t>
+  </si>
+  <si>
+    <t>収納的な</t>
+  </si>
+  <si>
+    <t>立体的な</t>
+  </si>
+  <si>
+    <t>性能・性質</t>
+    <rPh sb="0" eb="2">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウッドな(性質)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>判り易い（性能）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>縦の方が包括的な言葉なら◎</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ホウカツテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コトバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦のために横が必要なら◎</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -280,7 +388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +403,18 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -304,7 +424,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -353,11 +473,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,6 +544,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -395,10 +564,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1448,4 +1613,1040 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF0C23E-FCD7-4FFC-A489-15C507C6930D}">
+  <dimension ref="A1:AB26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <f>COUNTA(F:F)</f>
+        <v>22</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2">
+        <v>7</v>
+      </c>
+      <c r="O3" s="2">
+        <v>8</v>
+      </c>
+      <c r="P3" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2">
+        <v>11</v>
+      </c>
+      <c r="S3" s="2">
+        <v>12</v>
+      </c>
+      <c r="T3" s="2">
+        <v>13</v>
+      </c>
+      <c r="U3" s="2">
+        <v>14</v>
+      </c>
+      <c r="V3" s="2">
+        <v>15</v>
+      </c>
+      <c r="W3" s="2">
+        <v>16</v>
+      </c>
+      <c r="X3" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="9"/>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="E12" s="2">
+        <v>7</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="E14" s="2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="E16" s="2">
+        <v>11</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" spans="5:28">
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="5:28">
+      <c r="E18" s="2">
+        <v>13</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="5:28">
+      <c r="E19" s="2">
+        <v>14</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="5:28">
+      <c r="E20" s="2">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="5:28">
+      <c r="E21" s="2">
+        <v>16</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="5:28">
+      <c r="E22" s="2">
+        <v>17</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="5:28">
+      <c r="E23" s="2">
+        <v>18</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="5:28">
+      <c r="E24" s="2">
+        <v>19</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" spans="5:28">
+      <c r="E25" s="2">
+        <v>20</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="5:28">
+      <c r="E26" s="2">
+        <v>21</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:AB26" xr:uid="{17AAA867-CFC7-4994-ABCB-4D299F4CA59F}">
+      <formula1>$C$5:$C$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>